--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/67/word_level_predictions_67.xlsx
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>14</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>3</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>14</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>14</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>5</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>14</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>6</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>14</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>7</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>14</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>14</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>9</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>14</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>14</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>14</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/67/word_level_predictions_67.xlsx
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
